--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1263410.823284014</v>
+        <v>1261523.241767612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>114.0138441087954</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>294.0726667997836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.5347964757132</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14.50169760213065</v>
+        <v>26.40868448976566</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>42.93165166918609</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>82.92375604299535</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>180.2484107694636</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>163.4485242272185</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>126.9368849988963</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>93.87916681139876</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>35.1021313027384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,13 +1610,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>129.4106056624397</v>
+        <v>250.0068403603051</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>70.43533402631068</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,10 +2056,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>99.81947831404703</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467369</v>
       </c>
       <c r="W22" t="n">
-        <v>283.6437369515751</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>284.2394883622693</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>33.35146980185863</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,7 +2767,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.01153903325422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2950,22 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>77.17308023192612</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>22.1460924144459</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3016,7 +3016,7 @@
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789546</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1130.934501327943</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>761.9719843875312</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>761.9719843875312</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>761.9719843875312</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>350.9860795979236</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.934501327943</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2521.861417810431</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2521.861417810431</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2521.861417810431</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2373.948324228038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2373.948324228038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.838184214438</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2682.500911622131</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="S5" t="n">
-        <v>2682.500911622131</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="T5" t="n">
-        <v>2682.500911622131</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="U5" t="n">
-        <v>2682.500911622131</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>2351.43802427856</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>2351.43802427856</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>2351.43802427856</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>2351.43802427856</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.30828653671404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>97.30828653671404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>97.30828653671404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>97.30828653671404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>325.2978374347314</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>325.2978374347314</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>97.30828653671404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.30828653671404</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>737.5416843872215</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2102.110298549051</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W8" t="n">
-        <v>1749.341643278937</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.341643278937</v>
+        <v>1485.946714969784</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>1095.807382993972</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.4843764226425</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>781.5895395384766</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y13" t="n">
-        <v>746.1328412528823</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5358,22 +5358,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635878</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5449,37 +5449,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352016</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W16" t="n">
-        <v>1113.513998854602</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.513998854602</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,34 +5504,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>525.6009593486384</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1427.769468511124</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1227.849458426676</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1004.064043216182</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262961</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="V19" t="n">
-        <v>974.3830893901859</v>
+        <v>714.9354044297403</v>
       </c>
       <c r="W19" t="n">
-        <v>974.3830893901859</v>
+        <v>714.9354044297403</v>
       </c>
       <c r="X19" t="n">
-        <v>746.3935384921685</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y19" t="n">
-        <v>525.6009593486384</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5765,10 +5765,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5832,22 +5832,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028587</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655739</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>668.5943183619627</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619627</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028661</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6069,22 +6069,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>957.121188046693</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570736</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W28" t="n">
-        <v>531.1091870201129</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X28" t="n">
-        <v>303.1196361220956</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>130.9054447954966</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.8783819731813</v>
+        <v>439.5324299542178</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783072</v>
+        <v>326.3571123076816</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473423</v>
+        <v>232.0013381767166</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463199</v>
+        <v>232.0013381767166</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297804</v>
+        <v>232.0013381767166</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>119.586881777908</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386967</v>
+        <v>902.6804289818925</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220502</v>
+        <v>730.451743365246</v>
       </c>
       <c r="Y31" t="n">
-        <v>785.7659815220502</v>
+        <v>565.4200295030867</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515098</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,13 +7397,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7412,16 +7412,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7491,22 +7491,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7585,22 +7585,22 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859416</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7713,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>433.7515527292971</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>43.6598726146251</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>360.5026862907255</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>52.497333613053</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>403.7628319612156</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>91.23759968302093</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>285.1031356539326</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>183.4825220493564</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>157.1123926741513</v>
+        <v>36.51615797628594</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>39.52901837748212</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>152.318165009781</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>79.43092547709114</v>
       </c>
       <c r="W22" t="n">
-        <v>2.879261385015923</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,19 +24412,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>2.283509974321703</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.5731143188406</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>34.87048423814463</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>71.56447932453315</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667964</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667964</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>997759.9435249433</v>
+        <v>997759.9435249434</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
         <v>451572.973425356</v>
@@ -26320,19 +26320,19 @@
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="G2" t="n">
         <v>430131.9657114795</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114794</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114797</v>
@@ -26341,19 +26341,19 @@
         <v>447504.3510797971</v>
       </c>
       <c r="L2" t="n">
-        <v>451572.9734253564</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="M2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="O2" t="n">
         <v>451572.9734253561</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253561</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26430,7 +26430,7 @@
         <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687068</v>
@@ -26445,16 +26445,16 @@
         <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26522,40 +26522,40 @@
         <v>-386886.8516391224</v>
       </c>
       <c r="C6" t="n">
+        <v>203081.0275754222</v>
+      </c>
+      <c r="D6" t="n">
         <v>203081.0275754221</v>
       </c>
-      <c r="D6" t="n">
-        <v>203081.027575422</v>
-      </c>
       <c r="E6" t="n">
-        <v>-209190.0043010039</v>
+        <v>-209287.4634269757</v>
       </c>
       <c r="F6" t="n">
-        <v>315970.0321758923</v>
+        <v>315872.5730499204</v>
       </c>
       <c r="G6" t="n">
-        <v>315970.0321758923</v>
+        <v>315872.57304992</v>
       </c>
       <c r="H6" t="n">
-        <v>315970.0321758921</v>
+        <v>315872.5730499201</v>
       </c>
       <c r="I6" t="n">
-        <v>315970.0321758925</v>
+        <v>315872.5730499201</v>
       </c>
       <c r="J6" t="n">
-        <v>139546.8129832995</v>
+        <v>139449.3538573272</v>
       </c>
       <c r="K6" t="n">
-        <v>266374.3071456614</v>
+        <v>266355.8134077271</v>
       </c>
       <c r="L6" t="n">
-        <v>298921.565976273</v>
+        <v>298921.5659762728</v>
       </c>
       <c r="M6" t="n">
-        <v>174463.4575433024</v>
+        <v>174463.4575433026</v>
       </c>
       <c r="N6" t="n">
-        <v>309264.4727771396</v>
+        <v>309264.4727771397</v>
       </c>
       <c r="O6" t="n">
         <v>309264.4727771395</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,13 +26750,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108354</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>251.2590476622121</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.7115032210114</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.297183706224075</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.97670497268108</v>
+        <v>28.06971808504603</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>102.4893963537451</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>142.1113494150889</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>201.6819593027982</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>164.3037342429164</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>29.23400384289886</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361536</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28330,13 +28330,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>744.1759297797634</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>250.7532875461497</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
@@ -36218,7 +36218,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003109</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>642.8663885318336</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543133</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>259.5907485445777</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37151,13 +37151,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>736.9574053592285</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
@@ -37166,10 +37166,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>201.6157249145282</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>618.5494866776701</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
@@ -37877,7 +37877,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>179.2506324680951</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>492.1965505854573</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
